--- a/tm-driver/ix-evolution/src/main/resources/init/oob/role/ADMIN.USER/falcon.x.category.xlsx
+++ b/tm-driver/ix-evolution/src/main/resources/init/oob/role/ADMIN.USER/falcon.x.category.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22560"/>
+    <workbookView xWindow="66440" yWindow="-1780" windowWidth="38400" windowHeight="22560"/>
   </bookViews>
   <sheets>
     <sheet sheetId="2" name="DATA-PERM" state="visible" r:id="rId4"/>
@@ -649,7 +649,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="11" customHeight="1"/>
